--- a/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>106422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84318</v>
+        <v>82132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130728</v>
+        <v>129245</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5048931779128752</v>
+        <v>0.5048931779128751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4000285200346284</v>
+        <v>0.3896544828776989</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6202064265761944</v>
+        <v>0.6131732977805664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -762,19 +762,19 @@
         <v>59753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44161</v>
+        <v>42000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77187</v>
+        <v>77746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3666181750761309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2709492431026735</v>
+        <v>0.257692985275124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4735817190601272</v>
+        <v>0.4770122424267866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -783,19 +783,19 @@
         <v>166175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138521</v>
+        <v>140960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195448</v>
+        <v>195348</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4445968246986409</v>
+        <v>0.444596824698641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3706095362470736</v>
+        <v>0.3771344171217854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5229149823336818</v>
+        <v>0.5226466472813942</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>104359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80053</v>
+        <v>81536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126463</v>
+        <v>128649</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4951068220871249</v>
+        <v>0.4951068220871248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3797935734238055</v>
+        <v>0.3868267022194335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5999714799653716</v>
+        <v>0.6103455171223011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -833,19 +833,19 @@
         <v>101292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84660</v>
+        <v>84017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117723</v>
+        <v>119504</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6214791124274821</v>
+        <v>0.621479112427482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5194347560632834</v>
+        <v>0.5154861788546128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7222933330724481</v>
+        <v>0.7332212665801059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -854,19 +854,19 @@
         <v>205651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>175851</v>
+        <v>177281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>233313</v>
+        <v>231560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5502128651067031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4704849590436394</v>
+        <v>0.474310946563021</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6242231654707301</v>
+        <v>0.6195308654895033</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10060</v>
+        <v>8285</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01190271249638715</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06172585389854267</v>
+        <v>0.05083288147324923</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11855</v>
+        <v>11023</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005190310194655987</v>
+        <v>0.005190310194655988</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0317170432394325</v>
+        <v>0.02949067648587999</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>105879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>86020</v>
+        <v>87907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125345</v>
+        <v>124436</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4668124618296672</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3792564683428697</v>
+        <v>0.3875764456461155</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5526368407950852</v>
+        <v>0.5486270807828265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -1089,19 +1089,19 @@
         <v>63136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49644</v>
+        <v>48588</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77920</v>
+        <v>78754</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.252188442891594</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1982933364370406</v>
+        <v>0.1940787452870345</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3112398417920517</v>
+        <v>0.314570059001482</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>122</v>
@@ -1110,19 +1110,19 @@
         <v>169015</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>143619</v>
+        <v>143819</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>194349</v>
+        <v>196403</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3542062730233538</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3009822906225716</v>
+        <v>0.3014024853689218</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4072994936937206</v>
+        <v>0.4116038263966259</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>119574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99939</v>
+        <v>101019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140013</v>
+        <v>137766</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5271935335302174</v>
+        <v>0.5271935335302173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4406210631259678</v>
+        <v>0.4453825709885588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6173040944753385</v>
+        <v>0.6074001493296547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -1160,19 +1160,19 @@
         <v>186555</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171442</v>
+        <v>170521</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199372</v>
+        <v>201051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7451641975830249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6847973650929327</v>
+        <v>0.681117594709042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.796358856479166</v>
+        <v>0.8030660576814831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>249</v>
@@ -1181,19 +1181,19 @@
         <v>306129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279890</v>
+        <v>279596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331269</v>
+        <v>332110</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6415555973477346</v>
+        <v>0.6415555973477345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5865670579424294</v>
+        <v>0.5859522431384119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6942427523114097</v>
+        <v>0.6960060092431554</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8161</v>
+        <v>6893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005994004640115465</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03598065511386273</v>
+        <v>0.0303919173716868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4034</v>
+        <v>3326</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002647359525381087</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01611301205983285</v>
+        <v>0.01328653988723476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8320</v>
+        <v>8641</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00423812962891161</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01743577820105341</v>
+        <v>0.01810934989558234</v>
       </c>
     </row>
     <row r="12">
@@ -1403,19 +1403,19 @@
         <v>89353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72737</v>
+        <v>73451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105975</v>
+        <v>105344</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3538481444738366</v>
+        <v>0.3538481444738365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2880454727722674</v>
+        <v>0.2908759006384116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4196746631907098</v>
+        <v>0.4171747106991752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -1424,19 +1424,19 @@
         <v>79499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67756</v>
+        <v>67549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93030</v>
+        <v>93908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2680037525438752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2284144161086554</v>
+        <v>0.2277189957472196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3136167099489554</v>
+        <v>0.3165762361903334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -1445,19 +1445,19 @@
         <v>168852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148677</v>
+        <v>146980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190904</v>
+        <v>191350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3074776559197802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.270738865979755</v>
+        <v>0.2676486586727787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3476339416382349</v>
+        <v>0.3484465463665505</v>
       </c>
     </row>
     <row r="15">
@@ -1474,19 +1474,19 @@
         <v>162375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>145832</v>
+        <v>145696</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>179527</v>
+        <v>178156</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6430234828136232</v>
+        <v>0.6430234828136231</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5775109189656257</v>
+        <v>0.576972949817787</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7109461331333414</v>
+        <v>0.7055178770060764</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>291</v>
@@ -1495,19 +1495,19 @@
         <v>215125</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>201674</v>
+        <v>201105</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>227184</v>
+        <v>227730</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7252191328034423</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6798722056053466</v>
+        <v>0.6779547102172543</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7658717215129326</v>
+        <v>0.767711116384327</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>434</v>
@@ -1516,19 +1516,19 @@
         <v>377500</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>356192</v>
+        <v>354646</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>398527</v>
+        <v>398435</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.687423033691167</v>
+        <v>0.6874230336911669</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6486211571708382</v>
+        <v>0.6458061604173557</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7257118611887637</v>
+        <v>0.725545375917665</v>
       </c>
     </row>
     <row r="16">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4020</v>
+        <v>3977</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003128372712540318</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01592144687479411</v>
+        <v>0.01574762236028802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4631</v>
+        <v>4927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004251615296671823</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01561025285313491</v>
+        <v>0.01660937258764614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1587,19 +1587,19 @@
         <v>2051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6086</v>
+        <v>6105</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003735113656472846</v>
+        <v>0.003735113656472845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007483886401305935</v>
+        <v>0.0007615500747314654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01108221914958002</v>
+        <v>0.01111656743774313</v>
       </c>
     </row>
     <row r="17">
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4133</v>
+        <v>3788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002525499356010521</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0139317069813441</v>
+        <v>0.01276987028988321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3897</v>
+        <v>3786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001364196732579911</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007096012371806512</v>
+        <v>0.006893939867981865</v>
       </c>
     </row>
     <row r="18">
@@ -1754,19 +1754,19 @@
         <v>85960</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70403</v>
+        <v>69965</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103274</v>
+        <v>103654</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2711078099042059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2220437746550373</v>
+        <v>0.2206629983248817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3257155214268027</v>
+        <v>0.3269132653724393</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -1775,19 +1775,19 @@
         <v>80848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68584</v>
+        <v>68160</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93664</v>
+        <v>94099</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2333548737195534</v>
+        <v>0.2333548737195535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1979575215209317</v>
+        <v>0.1967351534983625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2703485240861652</v>
+        <v>0.27160430295944</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -1796,19 +1796,19 @@
         <v>166807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>147345</v>
+        <v>148336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188070</v>
+        <v>187926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2513952189894956</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2220634559081047</v>
+        <v>0.2235566023860923</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2834401547689868</v>
+        <v>0.283223048535346</v>
       </c>
     </row>
     <row r="20">
@@ -1825,19 +1825,19 @@
         <v>229106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211004</v>
+        <v>212075</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245035</v>
+        <v>244736</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7225777798890382</v>
+        <v>0.7225777798890383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6654854285909161</v>
+        <v>0.6688624539272844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7728144154614212</v>
+        <v>0.7718732323560292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>401</v>
@@ -1846,19 +1846,19 @@
         <v>260554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247542</v>
+        <v>247071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272943</v>
+        <v>273989</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7520495482414165</v>
+        <v>0.7520495482414163</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7144922059404391</v>
+        <v>0.7131342649432415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.787810108710478</v>
+        <v>0.790830219184373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -1867,19 +1867,19 @@
         <v>489660</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>467526</v>
+        <v>467998</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509525</v>
+        <v>509806</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7379663819893357</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7046080340276245</v>
+        <v>0.7053192456892033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7679052780236427</v>
+        <v>0.7683286656255389</v>
       </c>
     </row>
     <row r="21">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6229</v>
+        <v>8353</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003959737614136576</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01964491208033923</v>
+        <v>0.02634468690072347</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1917,19 +1917,19 @@
         <v>5057</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2269</v>
+        <v>2335</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9164</v>
+        <v>9342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01459557803903011</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006550268837413771</v>
+        <v>0.006740181041676741</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02645117793445715</v>
+        <v>0.02696348881177859</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1938,19 +1938,19 @@
         <v>6312</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3125</v>
+        <v>3139</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12941</v>
+        <v>11979</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00951321219170591</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004709796285451794</v>
+        <v>0.004730706420420346</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01950289230715209</v>
+        <v>0.01805387045033667</v>
       </c>
     </row>
     <row r="22">
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3737</v>
+        <v>3810</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.002354672592619288</v>
+        <v>0.002354672592619289</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01178607373573645</v>
+        <v>0.01201496554066359</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3766</v>
+        <v>3780</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001125186829462834</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005676053441083692</v>
+        <v>0.005696306356680286</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>51139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37956</v>
+        <v>38576</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63405</v>
+        <v>64671</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1986144718344537</v>
+        <v>0.1986144718344536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1474114368360942</v>
+        <v>0.1498218469388145</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2462504501236581</v>
+        <v>0.2511677460973652</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -2126,19 +2126,19 @@
         <v>28932</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21192</v>
+        <v>21877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37045</v>
+        <v>37841</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1138274015896217</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08337471919325026</v>
+        <v>0.08607210624229578</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1457448107223137</v>
+        <v>0.1488790713173515</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -2147,19 +2147,19 @@
         <v>80072</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64652</v>
+        <v>65987</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93810</v>
+        <v>96932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1564947764490958</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1263572375036937</v>
+        <v>0.12896710215059</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1833445961274833</v>
+        <v>0.1894481308309113</v>
       </c>
     </row>
     <row r="25">
@@ -2176,19 +2176,19 @@
         <v>202933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189602</v>
+        <v>188857</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>215323</v>
+        <v>215662</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7881474503073005</v>
+        <v>0.7881474503073004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7363742022130965</v>
+        <v>0.7334778081397567</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8362678228470849</v>
+        <v>0.8375849161094494</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>359</v>
@@ -2197,19 +2197,19 @@
         <v>222542</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>214191</v>
+        <v>213539</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230379</v>
+        <v>229554</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8755419765902435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8426875141108306</v>
+        <v>0.8401219712830975</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9063768934223162</v>
+        <v>0.9031295871161947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>578</v>
@@ -2218,19 +2218,19 @@
         <v>425475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>411517</v>
+        <v>409261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>440905</v>
+        <v>439930</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8315624523206478</v>
+        <v>0.831562452320648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8042833088128037</v>
+        <v>0.7998731679372943</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8617190859006509</v>
+        <v>0.8598145651234042</v>
       </c>
     </row>
     <row r="26">
@@ -2247,19 +2247,19 @@
         <v>3409</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8521</v>
+        <v>8921</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01323807785824574</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004115020439119032</v>
+        <v>0.004104280222233185</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03309397010293379</v>
+        <v>0.03464584608570503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2268,19 +2268,19 @@
         <v>2000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5461</v>
+        <v>5393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007867577756091404</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002413878625264982</v>
+        <v>0.002398929550528672</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02148482802142142</v>
+        <v>0.0212156358961208</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2289,19 +2289,19 @@
         <v>5408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2318</v>
+        <v>2046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11769</v>
+        <v>11166</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01057017309733602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004531265611480028</v>
+        <v>0.003999204757834027</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02300175052147283</v>
+        <v>0.02182386148890911</v>
       </c>
     </row>
     <row r="27">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.002763044064043484</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001372598132920229</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="28">
@@ -2456,19 +2456,19 @@
         <v>22052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14980</v>
+        <v>15207</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30293</v>
+        <v>30476</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1266966906699228</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08606733582260448</v>
+        <v>0.08737235480842434</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1740434071678205</v>
+        <v>0.1750948107713384</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -2477,19 +2477,19 @@
         <v>21272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15781</v>
+        <v>15181</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27840</v>
+        <v>28132</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1065888187017473</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07907480696775433</v>
+        <v>0.07606775827949062</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1394979995766005</v>
+        <v>0.1409594721194122</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>71</v>
@@ -2498,19 +2498,19 @@
         <v>43324</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33500</v>
+        <v>33746</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53698</v>
+        <v>53045</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1159560443352992</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0896610471898983</v>
+        <v>0.09031914070713541</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1437201860941383</v>
+        <v>0.1419734783359875</v>
       </c>
     </row>
     <row r="30">
@@ -2527,19 +2527,19 @@
         <v>151075</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>142687</v>
+        <v>142772</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158128</v>
+        <v>157998</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8679803057746582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8197912686452679</v>
+        <v>0.8202792309182546</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.908507425290777</v>
+        <v>0.9077596980838126</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>329</v>
@@ -2548,19 +2548,19 @@
         <v>174971</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>167354</v>
+        <v>167844</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>180757</v>
+        <v>181507</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8767273685317968</v>
+        <v>0.8767273685317967</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8385582287195217</v>
+        <v>0.8410134652836765</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9057212120934619</v>
+        <v>0.9094752125204926</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>539</v>
@@ -2569,19 +2569,19 @@
         <v>326046</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>314889</v>
+        <v>315875</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>335889</v>
+        <v>335131</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8726525608839943</v>
+        <v>0.8726525608839942</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8427931266437066</v>
+        <v>0.8454309258028661</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8989984322144691</v>
+        <v>0.8969684437954459</v>
       </c>
     </row>
     <row r="31">
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3990</v>
+        <v>4663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00532300355541895</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02292572170493372</v>
+        <v>0.02679325155083397</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2619,19 +2619,19 @@
         <v>3330</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1293</v>
+        <v>1239</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7312</v>
+        <v>6679</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01668381276645586</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006478753815217091</v>
+        <v>0.00621039485135937</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03663849342137521</v>
+        <v>0.03346796673703513</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2640,19 +2640,19 @@
         <v>4256</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8529</v>
+        <v>8301</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0113913947807065</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004447625574563168</v>
+        <v>0.004421618188131809</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0228266908023043</v>
+        <v>0.02221688909677594</v>
       </c>
     </row>
     <row r="32">
@@ -2791,19 +2791,19 @@
         <v>12282</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7642</v>
+        <v>7384</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19294</v>
+        <v>18794</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.09479453052035472</v>
+        <v>0.09479453052035471</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05898562387795544</v>
+        <v>0.0569925856736186</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1489165586563481</v>
+        <v>0.1450562403915979</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2812,19 +2812,19 @@
         <v>10975</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6867</v>
+        <v>6525</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17079</v>
+        <v>17912</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05876907770412725</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03677046121333771</v>
+        <v>0.03494117152042635</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09145235953325358</v>
+        <v>0.09590997513478858</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>35</v>
@@ -2833,19 +2833,19 @@
         <v>23257</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15895</v>
+        <v>15953</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30921</v>
+        <v>32048</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07352484704364229</v>
+        <v>0.07352484704364227</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05025133486603228</v>
+        <v>0.05043500122747231</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09775213462774657</v>
+        <v>0.1013164412905941</v>
       </c>
     </row>
     <row r="35">
@@ -2862,19 +2862,19 @@
         <v>117279</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>110267</v>
+        <v>110767</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>121919</v>
+        <v>122177</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.9052054694796454</v>
+        <v>0.9052054694796453</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8510834413436519</v>
+        <v>0.8549437596084021</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9410143761220447</v>
+        <v>0.9430074143263812</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>324</v>
@@ -2883,19 +2883,19 @@
         <v>173286</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>166883</v>
+        <v>165528</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>178213</v>
+        <v>178122</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.9278768748384584</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8935944473455986</v>
+        <v>0.8863394878048698</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9542613153825896</v>
+        <v>0.9537762903183591</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>498</v>
@@ -2904,19 +2904,19 @@
         <v>290565</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>282825</v>
+        <v>282111</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>298217</v>
+        <v>298667</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.9185908283928022</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8941230444453884</v>
+        <v>0.8918644689418225</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.942781948048289</v>
+        <v>0.9442042877994082</v>
       </c>
     </row>
     <row r="36">
@@ -2946,19 +2946,19 @@
         <v>1933</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5902</v>
+        <v>5155</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01034799857312052</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003202037691688085</v>
+        <v>0.003215699282783161</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03160344257427097</v>
+        <v>0.02760151516785833</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2967,19 +2967,19 @@
         <v>1933</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5536</v>
+        <v>5339</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006109531929841645</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001882178882706958</v>
+        <v>0.00187876002907817</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0175030312244659</v>
+        <v>0.01687946009206039</v>
       </c>
     </row>
     <row r="37">
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2891</v>
+        <v>2831</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003006048884293672</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01547918298762416</v>
+        <v>0.01515677891666724</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2485</v>
+        <v>2818</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001774792633713977</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.007855239533752726</v>
+        <v>0.008909734515233138</v>
       </c>
     </row>
     <row r="38">
@@ -3134,19 +3134,19 @@
         <v>473086</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>430789</v>
+        <v>429633</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>516678</v>
+        <v>517756</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3016605519870275</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2746900329731713</v>
+        <v>0.2739528372413423</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3294564995543524</v>
+        <v>0.3301440943185893</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>414</v>
@@ -3155,19 +3155,19 @@
         <v>344416</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>313537</v>
+        <v>316834</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>378918</v>
+        <v>378737</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2029637161447447</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1847668005219414</v>
+        <v>0.1867097311430676</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2232954916611845</v>
+        <v>0.223188950169818</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>790</v>
@@ -3176,19 +3176,19 @@
         <v>817503</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>761887</v>
+        <v>770822</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>869075</v>
+        <v>876098</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2503676150689002</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2333346137727885</v>
+        <v>0.2360711144415325</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2661620829870436</v>
+        <v>0.2683129863578913</v>
       </c>
     </row>
     <row r="40">
@@ -3205,19 +3205,19 @@
         <v>1086701</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1041527</v>
+        <v>1042516</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1127463</v>
+        <v>1130463</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6929280079172188</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6641231956181886</v>
+        <v>0.664754027183208</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7189198260720646</v>
+        <v>0.7208325216411856</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1935</v>
@@ -3226,19 +3226,19 @@
         <v>1334324</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1299939</v>
+        <v>1297244</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1366595</v>
+        <v>1361627</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.7863137525295735</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.766050795376619</v>
+        <v>0.7644626687931352</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8053306973377089</v>
+        <v>0.8024033857431473</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3010</v>
@@ -3247,19 +3247,19 @@
         <v>2421025</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2369259</v>
+        <v>2362672</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2474316</v>
+        <v>2469219</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.7414607604272213</v>
+        <v>0.7414607604272211</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.7256070384156476</v>
+        <v>0.723589587856315</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7577816928598563</v>
+        <v>0.756220689016021</v>
       </c>
     </row>
     <row r="41">
@@ -3276,19 +3276,19 @@
         <v>7740</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3488</v>
+        <v>3449</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15181</v>
+        <v>15287</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.00493538132071938</v>
+        <v>0.004935381320719381</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002224330815906164</v>
+        <v>0.002199060312901889</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.00967977210980355</v>
+        <v>0.0097473612313668</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3297,19 +3297,19 @@
         <v>16183</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9692</v>
+        <v>10349</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24710</v>
+        <v>24072</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009536365874526852</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005711698475496064</v>
+        <v>0.006098428079389665</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01456169724755699</v>
+        <v>0.01418557506012528</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>32</v>
@@ -3318,19 +3318,19 @@
         <v>23923</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16772</v>
+        <v>15835</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>33184</v>
+        <v>34812</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007326521912671577</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005136601307045654</v>
+        <v>0.004849525765567204</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01016282711266032</v>
+        <v>0.01066141334315433</v>
       </c>
     </row>
     <row r="42">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3368,19 +3368,19 @@
         <v>2013</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -3392,16 +3392,16 @@
         <v>743</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="43">
